--- a/Assets/Resources/test.xlsx
+++ b/Assets/Resources/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="973" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="973" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="page1" sheetId="1" state="visible" r:id="rId2"/>
@@ -181,8 +181,8 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -241,8 +241,8 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/Assets/Resources/test.xlsx
+++ b/Assets/Resources/test.xlsx
@@ -182,7 +182,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
